--- a/medicine/Sexualité et sexologie/Vâtsyâyana/Vâtsyâyana.xlsx
+++ b/medicine/Sexualité et sexologie/Vâtsyâyana/Vâtsyâyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A2tsy%C3%A2yana</t>
+          <t>Vâtsyâyana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vātsyāyana est un auteur de l'Inde médiévale (autour du Ve siècle). On lui attribue la compilation du Kamasutra.
-À ne pas confondre avec Pakṣilasvāmin Vātsyāyana[1],[2], auteur du Nyaya sutra bhashya, commentaire classique des Nyaya Sutra d'Akshapada Gautama ; dans cet ouvrage, sont réfutées les thèses bouddhistes de la vacuité (Śūnyatā), de l'impermanence (Anitya) et du non-Soi (Anātman), entre autres.
+À ne pas confondre avec Pakṣilasvāmin Vātsyāyana auteur du Nyaya sutra bhashya, commentaire classique des Nyaya Sutra d'Akshapada Gautama ; dans cet ouvrage, sont réfutées les thèses bouddhistes de la vacuité (Śūnyatā), de l'impermanence (Anitya) et du non-Soi (Anātman), entre autres.
 </t>
         </is>
       </c>
